--- a/seconda_prova/dati.xlsx
+++ b/seconda_prova/dati.xlsx
@@ -1894,7 +1894,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1949,7 +1949,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -2051,7 +2051,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -2102,7 +2102,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -2153,7 +2153,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -2204,7 +2204,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -2255,7 +2255,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -2306,7 +2306,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -2357,7 +2357,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -2408,7 +2408,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -2459,7 +2459,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -2510,7 +2510,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -2561,7 +2561,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -2612,7 +2612,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="C15" s="1" t="n">
@@ -2663,7 +2663,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="C16" s="1" t="n">
@@ -2714,7 +2714,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="C17" s="1" t="n">
@@ -2765,7 +2765,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="C18" s="1" t="n">
@@ -2816,7 +2816,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="C19" s="1" t="n">
@@ -2867,7 +2867,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="C20" s="1" t="n">
@@ -2918,7 +2918,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="C21" s="1" t="n">
@@ -2969,7 +2969,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="C22" s="1" t="n">
@@ -3020,7 +3020,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="C23" s="1" t="n">
@@ -3071,7 +3071,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>0.02</v>
       </c>
       <c r="C24" s="1" t="n">
